--- a/data/post2002DB-v2-2.xlsx
+++ b/data/post2002DB-v2-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D045DAFA-C466-2A48-8A14-664019162732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D868C1-BE5E-A64E-BECC-82546A84D35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Database of Post-2002 Fragments" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="609">
   <si>
     <t>DSS F. No.</t>
   </si>
@@ -360,9 +360,6 @@
   </si>
   <si>
     <t>Words from Genesis 22</t>
-  </si>
-  <si>
-    <t>dss01</t>
   </si>
   <si>
     <t>Genesis Midrash</t>
@@ -2679,9 +2676,6 @@
 Deut 23:3–4 [Puech?; Charlesworth?]</t>
   </si>
   <si>
-    <t>dss03</t>
-  </si>
-  <si>
     <r>
       <t>4Q33 (Deut</t>
     </r>
@@ -4154,9 +4148,6 @@
     <t>Isa 24:16–17</t>
   </si>
   <si>
-    <t>dss04</t>
-  </si>
-  <si>
     <r>
       <t>4Q56 (Isa</t>
     </r>
@@ -4301,9 +4292,6 @@
   </si>
   <si>
     <t>Isa 26:19–27:1</t>
-  </si>
-  <si>
-    <t>dss02</t>
   </si>
   <si>
     <t>“These fragments [Gen 13:1–3; Words from Genesis 22; Isa 24:16–17; Isa 26:19–27:1; 1 En. 8:4–9:1] that came to Europe in the beginning of the sixties were in Lebanon with Mr. Moussa Al-Tawil for safekeeping” (statement signed by William Kando, quoted by Tigchelaar 2017, 176).</t>
@@ -5555,9 +5543,6 @@
     </r>
   </si>
   <si>
-    <t>W 16</t>
-  </si>
-  <si>
     <r>
       <t>Biondi, Lee. 2004. &lt;i&gt;</t>
     </r>
@@ -5703,23 +5688,11 @@
     </r>
   </si>
   <si>
-    <t>W 17</t>
-  </si>
-  <si>
     <t xml:space="preserve">7(?)
 </t>
   </si>
   <si>
     <t>1 x 1</t>
-  </si>
-  <si>
-    <t>SIG.SCR.004741</t>
-  </si>
-  <si>
-    <t>SIG.00SCR.4768</t>
-  </si>
-  <si>
-    <t>SIG.SCR.004769</t>
   </si>
   <si>
     <t>2003: $ 250,000 for 4 frgs: Gen 13:1–3; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
@@ -6532,9 +6505,6 @@
     <t>Instruction (4Q418 ii 4–5)</t>
   </si>
   <si>
-    <t>Instruction (“4Q418”)</t>
-  </si>
-  <si>
     <t>Tobit, 22</t>
   </si>
   <si>
@@ -6623,13 +6593,7 @@
     <t>William Kando ➤ Schøyen Collection</t>
   </si>
   <si>
-    <t xml:space="preserve">	Special Visit Ministry?</t>
-  </si>
-  <si>
     <t>Special Visit Ministry?</t>
-  </si>
-  <si>
-    <t>Undisclosed U.S. institution</t>
   </si>
   <si>
     <t>2008: $1.2 million  (William Kando; Ganor according to Estrin 2013)
@@ -6706,9 +6670,6 @@
     <t>Azusa Pacific University</t>
   </si>
   <si>
-    <t>Unidentified (“Remains of 7 lines in Greek and remains of semitic letters of the cursive Aramaic type in a perpendicular direction”)</t>
-  </si>
-  <si>
     <t>Unidentified (“Manuscript fragments in Hebrew on brown leather, beginning of a scroll with characters in a fine Herodian Hebrew Book Script. Qumran, Late 1st Century A.D. Identified by Professor Emil Puesch [sic], Ecole de Biblioteque, Jerusalem [sic]”)</t>
   </si>
   <si>
@@ -6791,7 +6752,28 @@
     <t>Recently Invented DSS Manuscript Labels</t>
   </si>
   <si>
+    <t>National Christian Foundation</t>
+  </si>
+  <si>
+    <t>MOTB.SCR.004741</t>
+  </si>
+  <si>
+    <t>MOTB.SCR.004768</t>
+  </si>
+  <si>
+    <t>MOTB.SCR.004769</t>
+  </si>
+  <si>
+    <t>Instruction (“4Q418”) - W16</t>
+  </si>
+  <si>
+    <t>Unidentified - W17 - (“Remains of 7 lines in Greek and remains of semitic letters of the cursive Aramaic type in a perpendicular direction”)</t>
+  </si>
+  <si>
     <t>2.5 x 1.9</t>
+  </si>
+  <si>
+    <t>Undisclosed U.S. Institution</t>
   </si>
 </sst>
 </file>
@@ -8283,9 +8265,9 @@
   </sheetPr>
   <dimension ref="A1:W104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="64" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8294,7 +8276,8 @@
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
     <col min="8" max="8" width="33.19921875" style="2" customWidth="1"/>
     <col min="9" max="9" width="31.796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.59765625" style="1" customWidth="1"/>
@@ -8309,7 +8292,7 @@
     <col min="19" max="19" width="37.19921875" style="1" customWidth="1"/>
     <col min="20" max="20" width="31.19921875" style="1" customWidth="1"/>
     <col min="21" max="21" width="25.19921875" customWidth="1"/>
-    <col min="22" max="22" width="65.3984375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="26.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.3984375" style="1" customWidth="1"/>
     <col min="24" max="24" width="54.59765625" style="1" customWidth="1"/>
     <col min="25" max="25" width="14.19921875" style="1" customWidth="1"/>
@@ -8336,10 +8319,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -8351,19 +8334,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>3</v>
@@ -8372,10 +8355,10 @@
         <v>4</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>5</v>
@@ -8384,10 +8367,10 @@
         <v>6</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>7</v>
@@ -8396,13 +8379,13 @@
         <v>8</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="92" customHeight="1" x14ac:dyDescent="0.2">
@@ -8434,7 +8417,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>14</v>
@@ -8455,10 +8438,10 @@
         <v>18</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="287" x14ac:dyDescent="0.2">
@@ -8475,56 +8458,54 @@
         <v>19</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="M3" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="408" customHeight="1" x14ac:dyDescent="0.2">
@@ -8539,26 +8520,26 @@
         <v>191</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -8566,21 +8547,21 @@
         <v>8</v>
       </c>
       <c r="Q4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="224" x14ac:dyDescent="0.2">
@@ -8594,20 +8575,20 @@
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="15"/>
@@ -8618,21 +8599,21 @@
         <v>15</v>
       </c>
       <c r="Q5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="24" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8647,52 +8628,52 @@
         <v>101</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="S6" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="T6" s="15"/>
       <c r="U6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8707,52 +8688,52 @@
         <v>102</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="F7" s="15" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="23"/>
       <c r="I7" s="17"/>
       <c r="J7" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="M7" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="R7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="S7" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="240" x14ac:dyDescent="0.2">
@@ -8766,43 +8747,43 @@
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -8816,14 +8797,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
@@ -8836,13 +8817,13 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8857,52 +8838,52 @@
         <v>103</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8917,52 +8898,52 @@
         <v>104</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="F11" s="15" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="M11" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -8976,14 +8957,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="15"/>
@@ -8996,13 +8977,13 @@
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="160" x14ac:dyDescent="0.2">
@@ -9016,7 +8997,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="7"/>
@@ -9025,28 +9006,28 @@
       <c r="J13" s="15"/>
       <c r="K13" s="7"/>
       <c r="L13" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="15"/>
       <c r="R13" s="7"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -9060,14 +9041,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="15"/>
@@ -9080,13 +9061,13 @@
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="165" x14ac:dyDescent="0.2">
@@ -9101,50 +9082,50 @@
         <v>105</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="F15" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="M15" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -9159,46 +9140,46 @@
         <v>192</v>
       </c>
       <c r="D16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9213,50 +9194,50 @@
         <v>151</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>112</v>
-      </c>
       <c r="M17" s="15" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="7"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9271,24 +9252,24 @@
         <v>161</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="7"/>
       <c r="L18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
@@ -9296,19 +9277,19 @@
         <v>15</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
       <c r="U18" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
@@ -9322,14 +9303,14 @@
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="15"/>
@@ -9343,10 +9324,10 @@
       <c r="T19" s="15"/>
       <c r="U19" s="21"/>
       <c r="V19" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -9361,46 +9342,46 @@
         <v>152</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="7"/>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
       <c r="U20" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -9414,14 +9395,14 @@
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="15"/>
@@ -9434,13 +9415,13 @@
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -9455,50 +9436,50 @@
         <v>162</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="7"/>
       <c r="L22" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
       <c r="U22" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="75" x14ac:dyDescent="0.2">
@@ -9513,46 +9494,46 @@
         <v>193</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -9567,42 +9548,42 @@
         <v>203</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
       <c r="U24" s="21"/>
       <c r="V24" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="135" x14ac:dyDescent="0.2">
@@ -9616,53 +9597,53 @@
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="J25" s="15" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="O25" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="P25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="15" t="s">
+      <c r="R25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="135" x14ac:dyDescent="0.2">
@@ -9676,53 +9657,53 @@
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>156</v>
-      </c>
       <c r="J26" s="15" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P26" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="R26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
       <c r="U26" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="135" x14ac:dyDescent="0.2">
@@ -9736,45 +9717,45 @@
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P27" s="15"/>
       <c r="Q27" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -9788,14 +9769,14 @@
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="15"/>
@@ -9808,13 +9789,13 @@
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
       <c r="U28" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -9828,14 +9809,14 @@
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="15"/>
@@ -9848,13 +9829,13 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="130" x14ac:dyDescent="0.2">
@@ -9869,44 +9850,44 @@
         <v>194</v>
       </c>
       <c r="D30" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L30" s="15"/>
       <c r="M30" s="15" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q30" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -9920,14 +9901,14 @@
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="15"/>
@@ -9940,13 +9921,13 @@
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9961,52 +9942,52 @@
         <v>107</v>
       </c>
       <c r="D32" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>170</v>
-      </c>
       <c r="F32" s="15" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
       <c r="U32" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -10020,14 +10001,14 @@
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="15"/>
@@ -10040,13 +10021,13 @@
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="90" x14ac:dyDescent="0.2">
@@ -10061,30 +10042,30 @@
         <v>108</v>
       </c>
       <c r="D34" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="F34" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
@@ -10092,21 +10073,21 @@
         <v>15</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="15"/>
       <c r="U34" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="150" x14ac:dyDescent="0.2">
@@ -10121,30 +10102,30 @@
         <v>153</v>
       </c>
       <c r="D35" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N35" s="15"/>
       <c r="O35" s="15" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="P35" s="14">
         <v>7</v>
@@ -10154,13 +10135,13 @@
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
       <c r="U35" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10175,46 +10156,46 @@
         <v>163</v>
       </c>
       <c r="D36" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>192</v>
-      </c>
       <c r="F36" s="15" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="7"/>
       <c r="L36" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q36" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="Q36" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
       <c r="U36" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10229,44 +10210,44 @@
         <v>164</v>
       </c>
       <c r="D37" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="7"/>
       <c r="L37" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
       <c r="P37" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q37" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="Q37" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -10280,14 +10261,14 @@
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="15"/>
@@ -10300,13 +10281,13 @@
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="120" x14ac:dyDescent="0.2">
@@ -10321,49 +10302,47 @@
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J39" s="15"/>
-      <c r="K39" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="K39" s="7"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>15</v>
       </c>
       <c r="Q39" s="15"/>
       <c r="R39" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10378,50 +10357,50 @@
         <v>154</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="N40" s="15"/>
       <c r="O40" s="15" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q40" s="15"/>
       <c r="R40" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S40" s="19"/>
       <c r="T40" s="19"/>
       <c r="U40" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10435,14 +10414,14 @@
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="15"/>
@@ -10455,13 +10434,13 @@
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
       <c r="U41" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10476,53 +10455,53 @@
         <v>109</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
       <c r="U42" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="137" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="100" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -10533,20 +10512,20 @@
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="15"/>
@@ -10554,24 +10533,24 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q43" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="R43" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="Q43" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="R43" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="S43" s="19"/>
       <c r="T43" s="19"/>
       <c r="U43" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="56" x14ac:dyDescent="0.2">
@@ -10585,20 +10564,20 @@
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I44" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>237</v>
-      </c>
       <c r="J44" s="15" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="15"/>
@@ -10606,24 +10585,24 @@
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
       <c r="P44" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q44" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -10637,14 +10616,14 @@
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="15"/>
@@ -10657,13 +10636,13 @@
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -10677,16 +10656,16 @@
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="15"/>
@@ -10694,20 +10673,20 @@
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
       <c r="P46" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q46" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="21"/>
       <c r="V46" s="15" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="90" x14ac:dyDescent="0.2">
@@ -10722,26 +10701,26 @@
         <v>120</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
@@ -10749,21 +10728,21 @@
         <v>15</v>
       </c>
       <c r="Q47" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
       <c r="U47" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -10778,46 +10757,46 @@
         <v>112</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L48" s="15"/>
       <c r="M48" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q48" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S48" s="19"/>
       <c r="T48" s="19"/>
       <c r="U48" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10832,50 +10811,50 @@
         <v>113</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
       <c r="P49" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q49" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="Q49" s="15" t="s">
-        <v>101</v>
-      </c>
       <c r="R49" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
       <c r="U49" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -10889,14 +10868,14 @@
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="15"/>
@@ -10909,13 +10888,13 @@
       <c r="S50" s="15"/>
       <c r="T50" s="15"/>
       <c r="U50" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="90" x14ac:dyDescent="0.2">
@@ -10930,30 +10909,30 @@
         <v>114</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L51" s="15"/>
       <c r="M51" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
@@ -10961,21 +10940,21 @@
         <v>15</v>
       </c>
       <c r="Q51" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
       <c r="U51" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V51" s="15" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="70" x14ac:dyDescent="0.2">
@@ -10990,10 +10969,10 @@
         <v>170</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="7"/>
@@ -11003,7 +10982,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="15"/>
       <c r="M52" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="15"/>
@@ -11011,19 +10990,19 @@
         <v>15</v>
       </c>
       <c r="Q52" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="15"/>
       <c r="T52" s="15"/>
       <c r="U52" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11038,48 +11017,48 @@
         <v>115</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K53" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M53" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="L53" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="15"/>
       <c r="P53" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q53" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
       <c r="U53" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V53" s="15" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -11093,14 +11072,14 @@
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="15"/>
@@ -11113,13 +11092,13 @@
       <c r="S54" s="15"/>
       <c r="T54" s="15"/>
       <c r="U54" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V54" s="15" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11133,14 +11112,14 @@
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="15"/>
@@ -11153,13 +11132,13 @@
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
       <c r="U55" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V55" s="15" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="190" x14ac:dyDescent="0.2">
@@ -11174,44 +11153,44 @@
         <v>201</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="N56" s="15"/>
       <c r="O56" s="15"/>
       <c r="P56" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q56" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="15"/>
       <c r="T56" s="15"/>
       <c r="U56" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V56" s="15" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11226,52 +11205,52 @@
         <v>122</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K57" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L57" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="N57" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="L57" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="M57" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="N57" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="O57" s="15"/>
       <c r="P57" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q57" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R57" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S57" s="19"/>
       <c r="T57" s="19"/>
       <c r="U57" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="V57" s="15" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11286,28 +11265,28 @@
         <v>118</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
@@ -11315,21 +11294,21 @@
         <v>15</v>
       </c>
       <c r="Q58" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
       <c r="U58" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="V58" s="15" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11344,56 +11323,56 @@
         <v>199</v>
       </c>
       <c r="D59" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="L59" s="15"/>
       <c r="M59" s="15" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q59" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="S59" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="R59" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="S59" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="T59" s="15"/>
       <c r="U59" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="V59" s="15" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -11407,25 +11386,25 @@
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J60" s="15"/>
       <c r="K60" s="7"/>
       <c r="L60" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N60" s="15"/>
       <c r="O60" s="15"/>
@@ -11437,13 +11416,13 @@
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
       <c r="U60" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="V60" s="15" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="87" customHeight="1" x14ac:dyDescent="0.2">
@@ -11458,13 +11437,13 @@
         <v>165</v>
       </c>
       <c r="D61" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F61" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>327</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -11472,30 +11451,30 @@
       <c r="J61" s="15"/>
       <c r="K61" s="7"/>
       <c r="L61" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
       <c r="P61" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q61" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
       <c r="U61" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V61" s="15" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -11509,14 +11488,14 @@
       <c r="C62" s="14"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K62" s="7"/>
       <c r="L62" s="15"/>
@@ -11529,13 +11508,13 @@
       <c r="S62" s="15"/>
       <c r="T62" s="15"/>
       <c r="U62" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V62" s="15" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="110" x14ac:dyDescent="0.2">
@@ -11549,18 +11528,18 @@
       <c r="C63" s="14"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
@@ -11571,13 +11550,13 @@
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
       <c r="U63" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="V63" s="15" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11591,14 +11570,14 @@
       <c r="C64" s="14"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="15"/>
@@ -11611,13 +11590,13 @@
       <c r="S64" s="15"/>
       <c r="T64" s="15"/>
       <c r="U64" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V64" s="15" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="100" x14ac:dyDescent="0.2">
@@ -11632,46 +11611,46 @@
         <v>119</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L65" s="15"/>
       <c r="M65" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
       <c r="P65" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q65" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="R65" s="7"/>
       <c r="S65" s="15"/>
       <c r="T65" s="15"/>
       <c r="U65" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="V65" s="15" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11685,53 +11664,51 @@
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="J66" s="15"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="O66" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="P66" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q66" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="R66" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="J66" s="15"/>
-      <c r="K66" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L66" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M66" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="N66" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="O66" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="P66" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q66" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="R66" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
       <c r="U66" s="21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V66" s="15" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="377" x14ac:dyDescent="0.2">
@@ -11745,53 +11722,51 @@
       <c r="C67" s="14"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J67" s="15"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q67" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="R67" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="J67" s="15"/>
-      <c r="K67" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="N67" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="O67" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="P67" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q67" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="R67" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="15"/>
       <c r="U67" s="24" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="V67" s="15" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="210" x14ac:dyDescent="0.2">
@@ -11805,39 +11780,39 @@
       <c r="C68" s="14"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q68" s="15" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="R68" s="7"/>
       <c r="S68" s="15"/>
       <c r="T68" s="15"/>
       <c r="U68" s="21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="V68" s="15" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="370" x14ac:dyDescent="0.2">
@@ -11852,54 +11827,54 @@
         <v>116</v>
       </c>
       <c r="D69" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="F69" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="G69" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F69" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="I69" s="17"/>
-      <c r="J69" s="17" t="s">
-        <v>584</v>
+      <c r="J69" s="15" t="s">
+        <v>572</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
       <c r="P69" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q69" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="R69" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S69" s="19"/>
       <c r="T69" s="19"/>
       <c r="U69" s="21" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="V69" s="15" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="299" x14ac:dyDescent="0.2">
@@ -11914,46 +11889,46 @@
         <v>195</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L70" s="15"/>
       <c r="M70" s="15" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="N70" s="15" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="O70" s="15"/>
       <c r="P70" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q70" s="15"/>
       <c r="R70" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="S70" s="19"/>
       <c r="T70" s="19"/>
       <c r="U70" s="21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V70" s="15" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="114" customHeight="1" x14ac:dyDescent="0.2">
@@ -11968,28 +11943,28 @@
         <v>156</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="7"/>
       <c r="L71" s="15" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
@@ -11997,21 +11972,21 @@
         <v>15</v>
       </c>
       <c r="Q71" s="15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R71" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="15"/>
       <c r="U71" s="21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="V71" s="15" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="100" x14ac:dyDescent="0.2">
@@ -12026,44 +12001,44 @@
         <v>196</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L72" s="15"/>
       <c r="M72" s="15" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
       <c r="P72" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q72" s="15"/>
       <c r="R72" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="S72" s="15"/>
       <c r="T72" s="15"/>
       <c r="U72" s="21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="V72" s="15" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12078,50 +12053,50 @@
         <v>155</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="15" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M73" s="15" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="P73" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q73" s="15"/>
       <c r="R73" s="7"/>
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
       <c r="U73" s="21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="V73" s="15" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12136,46 +12111,46 @@
         <v>166</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
       <c r="K74" s="7"/>
       <c r="L74" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M74" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N74" s="15"/>
       <c r="O74" s="15"/>
       <c r="P74" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q74" s="15" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="15"/>
       <c r="T74" s="15"/>
       <c r="U74" s="21" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="V74" s="15" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12190,10 +12165,10 @@
         <v>167</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="7"/>
@@ -12202,10 +12177,10 @@
       <c r="J75" s="15"/>
       <c r="K75" s="7"/>
       <c r="L75" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
@@ -12213,19 +12188,19 @@
         <v>15</v>
       </c>
       <c r="Q75" s="15" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R75" s="7"/>
       <c r="S75" s="15"/>
       <c r="T75" s="15"/>
       <c r="U75" s="21" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="V75" s="15" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="100" x14ac:dyDescent="0.2">
@@ -12240,24 +12215,24 @@
         <v>200</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="15"/>
       <c r="J76" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L76" s="15"/>
       <c r="M76" s="15" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="N76" s="15"/>
       <c r="O76" s="15"/>
@@ -12265,21 +12240,21 @@
         <v>15</v>
       </c>
       <c r="Q76" s="15" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="S76" s="15"/>
       <c r="T76" s="15"/>
       <c r="U76" s="21" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="V76" s="15" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -12293,14 +12268,14 @@
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="15"/>
@@ -12313,13 +12288,13 @@
       <c r="S77" s="15"/>
       <c r="T77" s="15"/>
       <c r="U77" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V77" s="15" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="140" x14ac:dyDescent="0.2">
@@ -12333,14 +12308,14 @@
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="15"/>
       <c r="J78" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="15"/>
@@ -12348,22 +12323,22 @@
       <c r="N78" s="15"/>
       <c r="O78" s="15"/>
       <c r="P78" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q78" s="15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="R78" s="8"/>
       <c r="S78" s="15"/>
       <c r="T78" s="15"/>
       <c r="U78" s="21" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="V78" s="15" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12377,7 +12352,7 @@
       <c r="C79" s="14"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="7"/>
@@ -12386,28 +12361,28 @@
       <c r="J79" s="19"/>
       <c r="K79" s="7"/>
       <c r="L79" s="15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N79" s="19"/>
       <c r="O79" s="19"/>
       <c r="P79" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q79" s="19"/>
       <c r="R79" s="7"/>
       <c r="S79" s="15"/>
       <c r="T79" s="15"/>
       <c r="U79" s="21" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="V79" s="15" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12422,10 +12397,10 @@
         <v>181</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="8"/>
@@ -12435,7 +12410,7 @@
       <c r="K80" s="7"/>
       <c r="L80" s="15"/>
       <c r="M80" s="15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N80" s="15"/>
       <c r="O80" s="15"/>
@@ -12443,21 +12418,21 @@
         <v>15</v>
       </c>
       <c r="Q80" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="R80" s="9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="S80" s="15"/>
       <c r="T80" s="15"/>
       <c r="U80" s="21" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="V80" s="15" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="40" x14ac:dyDescent="0.2">
@@ -12471,14 +12446,14 @@
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="19"/>
       <c r="J81" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="15"/>
@@ -12491,13 +12466,13 @@
       <c r="S81" s="15"/>
       <c r="T81" s="15"/>
       <c r="U81" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V81" s="15" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="100" x14ac:dyDescent="0.2">
@@ -12512,44 +12487,44 @@
         <v>197</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="15"/>
       <c r="J82" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L82" s="15"/>
       <c r="M82" s="15" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="N82" s="15"/>
       <c r="O82" s="15"/>
       <c r="P82" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q82" s="15"/>
       <c r="R82" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="S82" s="15"/>
       <c r="T82" s="15"/>
       <c r="U82" s="21" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="V82" s="15" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="100" x14ac:dyDescent="0.2">
@@ -12564,44 +12539,44 @@
         <v>198</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L83" s="15"/>
       <c r="M83" s="15" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="N83" s="15"/>
       <c r="O83" s="15"/>
       <c r="P83" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q83" s="15"/>
       <c r="R83" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="S83" s="15"/>
       <c r="T83" s="15"/>
       <c r="U83" s="21" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="V83" s="15" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="15" x14ac:dyDescent="0.2">
@@ -12615,16 +12590,16 @@
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="15"/>
@@ -12640,10 +12615,10 @@
       <c r="T84" s="15"/>
       <c r="U84" s="21"/>
       <c r="V84" s="15" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12658,50 +12633,50 @@
         <v>123</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I85" s="19"/>
       <c r="J85" s="19" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L85" s="15"/>
       <c r="M85" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
       <c r="P85" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q85" s="15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="S85" s="15"/>
       <c r="T85" s="15"/>
       <c r="U85" s="24" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="V85" s="15" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="254" x14ac:dyDescent="0.2">
@@ -12716,48 +12691,48 @@
         <v>124</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I86" s="15"/>
       <c r="J86" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L86" s="15"/>
       <c r="M86" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
       <c r="P86" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q86" s="15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R86" s="7"/>
       <c r="S86" s="15"/>
       <c r="T86" s="15"/>
       <c r="U86" s="21" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="V86" s="15" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="159" customHeight="1" x14ac:dyDescent="0.2">
@@ -12772,52 +12747,52 @@
         <v>125</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
       <c r="P87" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q87" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="R87" s="7"/>
       <c r="S87" s="15"/>
       <c r="T87" s="15"/>
       <c r="U87" s="21" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="V87" s="15" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="90" x14ac:dyDescent="0.2">
@@ -12832,48 +12807,48 @@
         <v>126</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="7"/>
       <c r="H88" s="9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I88" s="15"/>
       <c r="J88" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L88" s="15"/>
       <c r="M88" s="15" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N88" s="15"/>
       <c r="O88" s="15" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="P88" s="15" t="s">
         <v>15</v>
       </c>
       <c r="Q88" s="15" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="R88" s="8"/>
       <c r="S88" s="19"/>
       <c r="T88" s="19"/>
       <c r="U88" s="21" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="V88" s="15" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="409.6" x14ac:dyDescent="0.2">
@@ -12888,54 +12863,54 @@
         <v>202</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I89" s="15"/>
       <c r="J89" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L89" s="15"/>
       <c r="M89" s="15" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
       <c r="P89" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q89" s="15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S89" s="15" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="T89" s="15" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="U89" s="21" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="V89" s="15" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="55" customHeight="1" x14ac:dyDescent="0.2">
@@ -12944,23 +12919,21 @@
       </c>
       <c r="B90" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[Item No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[Item No.]])</f>
-        <v>Instruction (“4Q418”)</v>
+        <v>Instruction (“4Q418”) - W16</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>465</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K90" s="7"/>
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
@@ -12971,16 +12944,16 @@
       <c r="S90" s="15"/>
       <c r="T90" s="15"/>
       <c r="U90" s="21" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="V90" s="15" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="105" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -12991,16 +12964,16 @@
       <c r="C91" s="14"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="15"/>
       <c r="J91" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="15"/>
@@ -13014,13 +12987,13 @@
       <c r="T91" s="15"/>
       <c r="U91" s="21"/>
       <c r="V91" s="15" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="90" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -13031,16 +13004,16 @@
       <c r="C92" s="14"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K92" s="7"/>
       <c r="L92" s="15"/>
@@ -13049,20 +13022,20 @@
       <c r="O92" s="15"/>
       <c r="P92" s="15"/>
       <c r="Q92" s="15" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="R92" s="7"/>
       <c r="S92" s="15"/>
       <c r="T92" s="15"/>
       <c r="U92" s="21"/>
       <c r="V92" s="15" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="90" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -13074,44 +13047,44 @@
         <v>130</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="15"/>
       <c r="J93" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L93" s="15"/>
       <c r="M93" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
       <c r="P93" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q93" s="15" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="R93" s="7"/>
       <c r="S93" s="15"/>
       <c r="T93" s="15"/>
       <c r="U93" s="21"/>
       <c r="V93" s="15" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -13127,39 +13100,39 @@
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L94" s="15"/>
       <c r="M94" s="15" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
       <c r="P94" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q94" s="15" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="R94" s="7"/>
       <c r="S94" s="15"/>
       <c r="T94" s="15"/>
       <c r="U94" s="21"/>
       <c r="V94" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13174,10 +13147,10 @@
         <v>168</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="7"/>
@@ -13186,30 +13159,30 @@
       <c r="J95" s="15"/>
       <c r="K95" s="7"/>
       <c r="L95" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
       <c r="P95" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q95" s="15" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="R95" s="7"/>
       <c r="S95" s="15"/>
       <c r="T95" s="15"/>
       <c r="U95" s="21" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="V95" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="135" x14ac:dyDescent="0.2">
@@ -13217,43 +13190,41 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="str">
-        <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[Item No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[Item No.]])</f>
-        <v>Unidentified</v>
+        <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[Item No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[Item No.]] )&amp;" - W17"</f>
+        <v>Unidentified - W17</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="7" t="s">
-        <v>482</v>
-      </c>
+      <c r="K96" s="7"/>
       <c r="L96" s="15"/>
       <c r="M96" s="15" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
       <c r="P96" s="15" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="Q96" s="15" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="R96" s="7"/>
       <c r="S96" s="15"/>
       <c r="T96" s="15"/>
       <c r="U96" s="21"/>
       <c r="V96" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="240" x14ac:dyDescent="0.2">
@@ -13267,14 +13238,14 @@
       <c r="C97" s="14"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
       <c r="I97" s="15"/>
       <c r="J97" s="15" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="15"/>
@@ -13288,10 +13259,10 @@
       <c r="T97" s="15"/>
       <c r="U97" s="21"/>
       <c r="V97" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="240" x14ac:dyDescent="0.2">
@@ -13305,14 +13276,14 @@
       <c r="C98" s="14"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="15"/>
@@ -13326,10 +13297,10 @@
       <c r="T98" s="15"/>
       <c r="U98" s="21"/>
       <c r="V98" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="45" x14ac:dyDescent="0.2">
@@ -13343,21 +13314,21 @@
       <c r="C99" s="14"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="15"/>
       <c r="J99" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>485</v>
+        <v>602</v>
       </c>
       <c r="L99" s="15"/>
       <c r="M99" s="15" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
@@ -13368,10 +13339,10 @@
       <c r="T99" s="15"/>
       <c r="U99" s="21"/>
       <c r="V99" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="45" x14ac:dyDescent="0.2">
@@ -13385,21 +13356,21 @@
       <c r="C100" s="14"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>486</v>
+        <v>603</v>
       </c>
       <c r="L100" s="15"/>
       <c r="M100" s="15" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
@@ -13410,10 +13381,10 @@
       <c r="T100" s="15"/>
       <c r="U100" s="21"/>
       <c r="V100" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="45" x14ac:dyDescent="0.2">
@@ -13427,21 +13398,21 @@
       <c r="C101" s="14"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>487</v>
+        <v>604</v>
       </c>
       <c r="L101" s="15"/>
       <c r="M101" s="15" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
@@ -13452,10 +13423,10 @@
       <c r="T101" s="15"/>
       <c r="U101" s="21"/>
       <c r="V101" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="90" x14ac:dyDescent="0.2">
@@ -13469,22 +13440,22 @@
       <c r="C102" s="14"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="15"/>
       <c r="J102" s="15" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="K102" s="7"/>
       <c r="L102" s="15"/>
       <c r="M102" s="15" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="O102" s="15"/>
       <c r="P102" s="15"/>
@@ -13494,10 +13465,10 @@
       <c r="T102" s="15"/>
       <c r="U102" s="21"/>
       <c r="V102" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -13505,12 +13476,12 @@
         <v>102</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C103" s="28"/>
       <c r="D103" s="29"/>
       <c r="E103" s="30" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="F103" s="29"/>
       <c r="G103" s="31"/>
@@ -13520,7 +13491,7 @@
       <c r="K103" s="31"/>
       <c r="L103" s="29"/>
       <c r="M103" s="29" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="N103" s="29"/>
       <c r="O103" s="29"/>
@@ -13531,10 +13502,10 @@
       <c r="T103" s="29"/>
       <c r="U103" s="33"/>
       <c r="V103" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -13542,12 +13513,12 @@
         <v>103</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C104" s="28"/>
       <c r="D104" s="29"/>
       <c r="E104" s="30" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F104" s="29"/>
       <c r="G104" s="31"/>
@@ -13557,7 +13528,7 @@
       <c r="K104" s="31"/>
       <c r="L104" s="29"/>
       <c r="M104" s="29" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="N104" s="29"/>
       <c r="O104" s="29"/>
@@ -13568,10 +13539,10 @@
       <c r="T104" s="29"/>
       <c r="U104" s="33"/>
       <c r="V104" s="15" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
